--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mmp2-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mmp2-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.242648</v>
+        <v>5.0342085</v>
       </c>
       <c r="H2">
-        <v>12.485296</v>
+        <v>10.068417</v>
       </c>
       <c r="I2">
-        <v>0.04947974487165401</v>
+        <v>0.04372380761401376</v>
       </c>
       <c r="J2">
-        <v>0.03466218147654072</v>
+        <v>0.03012473123849199</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9991829999999999</v>
+        <v>4.020434</v>
       </c>
       <c r="N2">
-        <v>1.998366</v>
+        <v>8.040868</v>
       </c>
       <c r="O2">
-        <v>0.01488714493203248</v>
+        <v>0.06420203970218387</v>
       </c>
       <c r="P2">
-        <v>0.01137801272088475</v>
+        <v>0.04878916602310146</v>
       </c>
       <c r="Q2">
-        <v>6.237547756583999</v>
+        <v>20.239703016489</v>
       </c>
       <c r="R2">
-        <v>24.950191026336</v>
+        <v>80.958812065956</v>
       </c>
       <c r="S2">
-        <v>0.0007366121331043039</v>
+        <v>0.002807157632365561</v>
       </c>
       <c r="T2">
-        <v>0.0003943867417736961</v>
+        <v>0.001469760513796096</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.242648</v>
+        <v>5.0342085</v>
       </c>
       <c r="H3">
-        <v>12.485296</v>
+        <v>10.068417</v>
       </c>
       <c r="I3">
-        <v>0.04947974487165401</v>
+        <v>0.04372380761401376</v>
       </c>
       <c r="J3">
-        <v>0.03466218147654072</v>
+        <v>0.03012473123849199</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>118.695864</v>
       </c>
       <c r="O3">
-        <v>0.5894957947979553</v>
+        <v>0.6318154186847339</v>
       </c>
       <c r="P3">
-        <v>0.6758136650185235</v>
+        <v>0.7202048603398876</v>
       </c>
       <c r="Q3">
-        <v>246.992166002624</v>
+        <v>199.179909154548</v>
       </c>
       <c r="R3">
-        <v>1481.952996015744</v>
+        <v>1195.079454927288</v>
       </c>
       <c r="S3">
-        <v>0.02916810152951574</v>
+        <v>0.02762537581413886</v>
       </c>
       <c r="T3">
-        <v>0.02342517590119816</v>
+        <v>0.02169597785439477</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,78 +667,78 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.242648</v>
+        <v>5.0342085</v>
       </c>
       <c r="H4">
-        <v>12.485296</v>
+        <v>10.068417</v>
       </c>
       <c r="I4">
-        <v>0.04947974487165401</v>
+        <v>0.04372380761401376</v>
       </c>
       <c r="J4">
-        <v>0.03466218147654072</v>
+        <v>0.03012473123849199</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.06171066666666666</v>
+        <v>19.035871</v>
       </c>
       <c r="N4">
-        <v>0.185132</v>
+        <v>38.071742</v>
       </c>
       <c r="O4">
-        <v>0.0009194468265763251</v>
+        <v>0.3039825416130822</v>
       </c>
       <c r="P4">
-        <v>0.001054078307498645</v>
+        <v>0.2310059736370109</v>
       </c>
       <c r="Q4">
-        <v>0.3852379698453333</v>
+        <v>95.8305435931035</v>
       </c>
       <c r="R4">
-        <v>2.311427819072</v>
+        <v>383.322174372414</v>
       </c>
       <c r="S4">
-        <v>4.549399440204848E-05</v>
+        <v>0.01329127416750934</v>
       </c>
       <c r="T4">
-        <v>3.653665358500291E-05</v>
+        <v>0.00695899287030112</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.242648</v>
+        <v>102.8089076666667</v>
       </c>
       <c r="H5">
-        <v>12.485296</v>
+        <v>308.426723</v>
       </c>
       <c r="I5">
-        <v>0.04947974487165401</v>
+        <v>0.8929302192835752</v>
       </c>
       <c r="J5">
-        <v>0.03466218147654072</v>
+        <v>0.9228135999078918</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.7183095</v>
+        <v>4.020434</v>
       </c>
       <c r="N5">
-        <v>49.436619</v>
+        <v>8.040868</v>
       </c>
       <c r="O5">
-        <v>0.3682859456189059</v>
+        <v>0.06420203970218387</v>
       </c>
       <c r="P5">
-        <v>0.2814752051723923</v>
+        <v>0.04878916602310146</v>
       </c>
       <c r="Q5">
-        <v>154.307705363556</v>
+        <v>413.3364278859274</v>
       </c>
       <c r="R5">
-        <v>617.230821454224</v>
+        <v>2480.018567315564</v>
       </c>
       <c r="S5">
-        <v>0.01822269462903931</v>
+        <v>0.05732794138972384</v>
       </c>
       <c r="T5">
-        <v>0.009756544642831995</v>
+        <v>0.04502330593428206</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,25 +782,25 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.242648</v>
+        <v>102.8089076666667</v>
       </c>
       <c r="H6">
-        <v>12.485296</v>
+        <v>308.426723</v>
       </c>
       <c r="I6">
-        <v>0.04947974487165401</v>
+        <v>0.8929302192835752</v>
       </c>
       <c r="J6">
-        <v>0.03466218147654072</v>
+        <v>0.9228135999078918</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.772676333333333</v>
+        <v>39.565288</v>
       </c>
       <c r="N6">
-        <v>5.318029</v>
+        <v>118.695864</v>
       </c>
       <c r="O6">
-        <v>0.02641166782452989</v>
+        <v>0.6318154186847339</v>
       </c>
       <c r="P6">
-        <v>0.03027903878070085</v>
+        <v>0.7202048603398876</v>
       </c>
       <c r="Q6">
-        <v>11.06619436693067</v>
+        <v>4067.664040797076</v>
       </c>
       <c r="R6">
-        <v>66.397166201584</v>
+        <v>36608.97636717368</v>
       </c>
       <c r="S6">
-        <v>0.001306842585592612</v>
+        <v>0.5641670803529033</v>
       </c>
       <c r="T6">
-        <v>0.001049537537151867</v>
+        <v>0.6646148398414121</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>308.426723</v>
       </c>
       <c r="I7">
-        <v>0.8148719136302578</v>
+        <v>0.8929302192835752</v>
       </c>
       <c r="J7">
-        <v>0.8562666872167672</v>
+        <v>0.9228135999078918</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9991829999999999</v>
+        <v>19.035871</v>
       </c>
       <c r="N7">
-        <v>1.998366</v>
+        <v>38.071742</v>
       </c>
       <c r="O7">
-        <v>0.01488714493203248</v>
+        <v>0.3039825416130822</v>
       </c>
       <c r="P7">
-        <v>0.01137801272088475</v>
+        <v>0.2310059736370109</v>
       </c>
       <c r="Q7">
-        <v>102.724912789103</v>
+        <v>1957.057103993578</v>
       </c>
       <c r="R7">
-        <v>616.3494767346181</v>
+        <v>11742.34262396147</v>
       </c>
       <c r="S7">
-        <v>0.0121311162792563</v>
+        <v>0.271435197540948</v>
       </c>
       <c r="T7">
-        <v>0.009742613259622224</v>
+        <v>0.2131754541321976</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,60 +915,60 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>102.8089076666667</v>
+        <v>0.1333553333333334</v>
       </c>
       <c r="H8">
-        <v>308.426723</v>
+        <v>0.400066</v>
       </c>
       <c r="I8">
-        <v>0.8148719136302578</v>
+        <v>0.001158236282619074</v>
       </c>
       <c r="J8">
-        <v>0.8562666872167672</v>
+        <v>0.001196998567665457</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>39.565288</v>
+        <v>4.020434</v>
       </c>
       <c r="N8">
-        <v>118.695864</v>
+        <v>8.040868</v>
       </c>
       <c r="O8">
-        <v>0.5894957947979553</v>
+        <v>0.06420203970218387</v>
       </c>
       <c r="P8">
-        <v>0.6758136650185235</v>
+        <v>0.04878916602310146</v>
       </c>
       <c r="Q8">
-        <v>4067.664040797076</v>
+        <v>0.5361463162146667</v>
       </c>
       <c r="R8">
-        <v>36608.97636717368</v>
+        <v>3.216877897288</v>
       </c>
       <c r="S8">
-        <v>0.4803635663839996</v>
+        <v>7.436113180121963E-05</v>
       </c>
       <c r="T8">
-        <v>0.5786767281212332</v>
+        <v>5.840056184724462E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,51 +977,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>102.8089076666667</v>
+        <v>0.1333553333333334</v>
       </c>
       <c r="H9">
-        <v>308.426723</v>
+        <v>0.400066</v>
       </c>
       <c r="I9">
-        <v>0.8148719136302578</v>
+        <v>0.001158236282619074</v>
       </c>
       <c r="J9">
-        <v>0.8562666872167672</v>
+        <v>0.001196998567665457</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.06171066666666666</v>
+        <v>39.565288</v>
       </c>
       <c r="N9">
-        <v>0.185132</v>
+        <v>118.695864</v>
       </c>
       <c r="O9">
-        <v>0.0009194468265763251</v>
+        <v>0.6318154186847339</v>
       </c>
       <c r="P9">
-        <v>0.001054078307498645</v>
+        <v>0.7202048603398876</v>
       </c>
       <c r="Q9">
-        <v>6.344406231381779</v>
+        <v>5.276242169669334</v>
       </c>
       <c r="R9">
-        <v>57.09965608243601</v>
+        <v>47.48617952702401</v>
       </c>
       <c r="S9">
-        <v>0.0007492313950535177</v>
+        <v>0.0007317915418388199</v>
       </c>
       <c r="T9">
-        <v>0.0009025721404289212</v>
+        <v>0.0008620841862525459</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>102.8089076666667</v>
+        <v>0.1333553333333334</v>
       </c>
       <c r="H10">
-        <v>308.426723</v>
+        <v>0.400066</v>
       </c>
       <c r="I10">
-        <v>0.8148719136302578</v>
+        <v>0.001158236282619074</v>
       </c>
       <c r="J10">
-        <v>0.8562666872167672</v>
+        <v>0.001196998567665457</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.7183095</v>
+        <v>19.035871</v>
       </c>
       <c r="N10">
-        <v>49.436619</v>
+        <v>38.071742</v>
       </c>
       <c r="O10">
-        <v>0.3682859456189059</v>
+        <v>0.3039825416130822</v>
       </c>
       <c r="P10">
-        <v>0.2814752051723923</v>
+        <v>0.2310059736370109</v>
       </c>
       <c r="Q10">
-        <v>2541.26239906159</v>
+        <v>2.538534922495334</v>
       </c>
       <c r="R10">
-        <v>15247.57439436954</v>
+        <v>15.231209534972</v>
       </c>
       <c r="S10">
-        <v>0.3001058732696069</v>
+        <v>0.0003520836089790343</v>
       </c>
       <c r="T10">
-        <v>0.2410178414666242</v>
+        <v>0.0002765138195656664</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>102.8089076666667</v>
+        <v>6.151158000000001</v>
       </c>
       <c r="H11">
-        <v>308.426723</v>
+        <v>12.302316</v>
       </c>
       <c r="I11">
-        <v>0.8148719136302578</v>
+        <v>0.05342489271062207</v>
       </c>
       <c r="J11">
-        <v>0.8562666872167672</v>
+        <v>0.03680856316449744</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.772676333333333</v>
+        <v>4.020434</v>
       </c>
       <c r="N11">
-        <v>5.318029</v>
+        <v>8.040868</v>
       </c>
       <c r="O11">
-        <v>0.02641166782452989</v>
+        <v>0.06420203970218387</v>
       </c>
       <c r="P11">
-        <v>0.03027903878070085</v>
+        <v>0.04878916602310146</v>
       </c>
       <c r="Q11">
-        <v>182.2469174765519</v>
+        <v>24.730324762572</v>
       </c>
       <c r="R11">
-        <v>1640.222257288967</v>
+        <v>98.921299050288</v>
       </c>
       <c r="S11">
-        <v>0.02152212630234138</v>
+        <v>0.003429987082892272</v>
       </c>
       <c r="T11">
-        <v>0.02592693222885874</v>
+        <v>0.001795859099304483</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7280690000000001</v>
+        <v>6.151158000000001</v>
       </c>
       <c r="H12">
-        <v>2.184207</v>
+        <v>12.302316</v>
       </c>
       <c r="I12">
-        <v>0.005770735170229087</v>
+        <v>0.05342489271062207</v>
       </c>
       <c r="J12">
-        <v>0.006063883420651828</v>
+        <v>0.03680856316449744</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9991829999999999</v>
+        <v>39.565288</v>
       </c>
       <c r="N12">
-        <v>1.998366</v>
+        <v>118.695864</v>
       </c>
       <c r="O12">
-        <v>0.01488714493203248</v>
+        <v>0.6318154186847339</v>
       </c>
       <c r="P12">
-        <v>0.01137801272088475</v>
+        <v>0.7202048603398876</v>
       </c>
       <c r="Q12">
-        <v>0.727474167627</v>
+        <v>243.372337803504</v>
       </c>
       <c r="R12">
-        <v>4.364845005762001</v>
+        <v>1460.234026821024</v>
       </c>
       <c r="S12">
-        <v>8.590977084357752E-05</v>
+        <v>0.03375467095614867</v>
       </c>
       <c r="T12">
-        <v>6.899494269813864E-05</v>
+        <v>0.02650970609319881</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7280690000000001</v>
+        <v>6.151158000000001</v>
       </c>
       <c r="H13">
-        <v>2.184207</v>
+        <v>12.302316</v>
       </c>
       <c r="I13">
-        <v>0.005770735170229087</v>
+        <v>0.05342489271062207</v>
       </c>
       <c r="J13">
-        <v>0.006063883420651828</v>
+        <v>0.03680856316449744</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>39.565288</v>
+        <v>19.035871</v>
       </c>
       <c r="N13">
-        <v>118.695864</v>
+        <v>38.071742</v>
       </c>
       <c r="O13">
-        <v>0.5894957947979553</v>
+        <v>0.3039825416130822</v>
       </c>
       <c r="P13">
-        <v>0.6758136650185235</v>
+        <v>0.2310059736370109</v>
       </c>
       <c r="Q13">
-        <v>28.80625966887201</v>
+        <v>117.092650188618</v>
       </c>
       <c r="R13">
-        <v>259.256337019848</v>
+        <v>468.370600754472</v>
       </c>
       <c r="S13">
-        <v>0.00340182411574271</v>
+        <v>0.01624023467158113</v>
       </c>
       <c r="T13">
-        <v>0.004098055278755773</v>
+        <v>0.008502997971994148</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.7280690000000001</v>
+        <v>0.9000716666666667</v>
       </c>
       <c r="H14">
-        <v>2.184207</v>
+        <v>2.700215</v>
       </c>
       <c r="I14">
-        <v>0.005770735170229087</v>
+        <v>0.007817427584129273</v>
       </c>
       <c r="J14">
-        <v>0.006063883420651828</v>
+        <v>0.00807905067511056</v>
       </c>
       <c r="K14">
         <v>2</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.06171066666666666</v>
+        <v>4.020434</v>
       </c>
       <c r="N14">
-        <v>0.185132</v>
+        <v>8.040868</v>
       </c>
       <c r="O14">
-        <v>0.0009194468265763251</v>
+        <v>0.06420203970218387</v>
       </c>
       <c r="P14">
-        <v>0.001054078307498645</v>
+        <v>0.04878916602310146</v>
       </c>
       <c r="Q14">
-        <v>0.04492962336933334</v>
+        <v>3.618678731103333</v>
       </c>
       <c r="R14">
-        <v>0.404366610324</v>
+        <v>21.71207238662</v>
       </c>
       <c r="S14">
-        <v>5.305884139279523E-06</v>
+        <v>0.0005018947961252149</v>
       </c>
       <c r="T14">
-        <v>6.391807972909769E-06</v>
+        <v>0.0003941701446970191</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.7280690000000001</v>
+        <v>0.9000716666666667</v>
       </c>
       <c r="H15">
-        <v>2.184207</v>
+        <v>2.700215</v>
       </c>
       <c r="I15">
-        <v>0.005770735170229087</v>
+        <v>0.007817427584129273</v>
       </c>
       <c r="J15">
-        <v>0.006063883420651828</v>
+        <v>0.00807905067511056</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>24.7183095</v>
+        <v>39.565288</v>
       </c>
       <c r="N15">
-        <v>49.436619</v>
+        <v>118.695864</v>
       </c>
       <c r="O15">
-        <v>0.3682859456189059</v>
+        <v>0.6318154186847339</v>
       </c>
       <c r="P15">
-        <v>0.2814752051723923</v>
+        <v>0.7202048603398876</v>
       </c>
       <c r="Q15">
-        <v>17.9966348793555</v>
+        <v>35.61159471230667</v>
       </c>
       <c r="R15">
-        <v>107.979809276133</v>
+        <v>320.50435241076</v>
       </c>
       <c r="S15">
-        <v>0.002125280659084097</v>
+        <v>0.004939171282104225</v>
       </c>
       <c r="T15">
-        <v>0.001706832829969441</v>
+        <v>0.005818571563146876</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.7280690000000001</v>
+        <v>0.9000716666666667</v>
       </c>
       <c r="H16">
-        <v>2.184207</v>
+        <v>2.700215</v>
       </c>
       <c r="I16">
-        <v>0.005770735170229087</v>
+        <v>0.007817427584129273</v>
       </c>
       <c r="J16">
-        <v>0.006063883420651828</v>
+        <v>0.00807905067511056</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.772676333333333</v>
+        <v>19.035871</v>
       </c>
       <c r="N16">
-        <v>5.318029</v>
+        <v>38.071742</v>
       </c>
       <c r="O16">
-        <v>0.02641166782452989</v>
+        <v>0.3039825416130822</v>
       </c>
       <c r="P16">
-        <v>0.03027903878070085</v>
+        <v>0.2310059736370109</v>
       </c>
       <c r="Q16">
-        <v>1.290630685333667</v>
+        <v>17.13364813742167</v>
       </c>
       <c r="R16">
-        <v>11.615676168003</v>
+        <v>102.80188882453</v>
       </c>
       <c r="S16">
-        <v>0.0001524147404194226</v>
+        <v>0.002376361505899834</v>
       </c>
       <c r="T16">
-        <v>0.0001836085612555656</v>
+        <v>0.001866308967266666</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1467,22 +1467,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>12.055162</v>
+        <v>0.108852</v>
       </c>
       <c r="H17">
-        <v>24.110324</v>
+        <v>0.326556</v>
       </c>
       <c r="I17">
-        <v>0.09555021204887067</v>
+        <v>0.0009454165250407539</v>
       </c>
       <c r="J17">
-        <v>0.06693605229272859</v>
+        <v>0.0009770564463427557</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9991829999999999</v>
+        <v>4.020434</v>
       </c>
       <c r="N17">
-        <v>1.998366</v>
+        <v>8.040868</v>
       </c>
       <c r="O17">
-        <v>0.01488714493203248</v>
+        <v>0.06420203970218387</v>
       </c>
       <c r="P17">
-        <v>0.01137801272088475</v>
+        <v>0.04878916602310146</v>
       </c>
       <c r="Q17">
-        <v>12.045312932646</v>
+        <v>0.437632281768</v>
       </c>
       <c r="R17">
-        <v>48.181251730584</v>
+        <v>2.625793690608</v>
       </c>
       <c r="S17">
-        <v>0.001422469855057973</v>
+        <v>6.069766927576719E-05</v>
       </c>
       <c r="T17">
-        <v>0.0007615992544724729</v>
+        <v>4.766976917455823E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>12.055162</v>
+        <v>0.108852</v>
       </c>
       <c r="H18">
-        <v>24.110324</v>
+        <v>0.326556</v>
       </c>
       <c r="I18">
-        <v>0.09555021204887067</v>
+        <v>0.0009454165250407539</v>
       </c>
       <c r="J18">
-        <v>0.06693605229272859</v>
+        <v>0.0009770564463427557</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,828 +1559,84 @@
         <v>118.695864</v>
       </c>
       <c r="O18">
-        <v>0.5894957947979553</v>
+        <v>0.6318154186847339</v>
       </c>
       <c r="P18">
-        <v>0.6758136650185235</v>
+        <v>0.7202048603398876</v>
       </c>
       <c r="Q18">
-        <v>476.9659564166561</v>
+        <v>4.306760729376</v>
       </c>
       <c r="R18">
-        <v>2861.795738499936</v>
+        <v>38.760846564384</v>
       </c>
       <c r="S18">
-        <v>0.05632644819486218</v>
+        <v>0.0005973287376000901</v>
       </c>
       <c r="T18">
-        <v>0.04523629882182045</v>
+        <v>0.0007036808014824713</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>12.055162</v>
+        <v>0.108852</v>
       </c>
       <c r="H19">
-        <v>24.110324</v>
+        <v>0.326556</v>
       </c>
       <c r="I19">
-        <v>0.09555021204887067</v>
+        <v>0.0009454165250407539</v>
       </c>
       <c r="J19">
-        <v>0.06693605229272859</v>
+        <v>0.0009770564463427557</v>
       </c>
       <c r="K19">
         <v>2</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.06171066666666666</v>
+        <v>19.035871</v>
       </c>
       <c r="N19">
-        <v>0.185132</v>
+        <v>38.071742</v>
       </c>
       <c r="O19">
-        <v>0.0009194468265763251</v>
+        <v>0.3039825416130822</v>
       </c>
       <c r="P19">
-        <v>0.001054078307498645</v>
+        <v>0.2310059736370109</v>
       </c>
       <c r="Q19">
-        <v>0.7439320837946667</v>
+        <v>2.072092630092</v>
       </c>
       <c r="R19">
-        <v>4.463592502768</v>
+        <v>12.432555780552</v>
       </c>
       <c r="S19">
-        <v>8.785333924702907E-05</v>
+        <v>0.0002873901181648966</v>
       </c>
       <c r="T19">
-        <v>7.055584071136011E-05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>12.055162</v>
-      </c>
-      <c r="H20">
-        <v>24.110324</v>
-      </c>
-      <c r="I20">
-        <v>0.09555021204887067</v>
-      </c>
-      <c r="J20">
-        <v>0.06693605229272859</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>24.7183095</v>
-      </c>
-      <c r="N20">
-        <v>49.436619</v>
-      </c>
-      <c r="O20">
-        <v>0.3682859456189059</v>
-      </c>
-      <c r="P20">
-        <v>0.2814752051723923</v>
-      </c>
-      <c r="Q20">
-        <v>297.983225388639</v>
-      </c>
-      <c r="R20">
-        <v>1191.932901554556</v>
-      </c>
-      <c r="S20">
-        <v>0.03518980019850531</v>
-      </c>
-      <c r="T20">
-        <v>0.01884083905252576</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>12.055162</v>
-      </c>
-      <c r="H21">
-        <v>24.110324</v>
-      </c>
-      <c r="I21">
-        <v>0.09555021204887067</v>
-      </c>
-      <c r="J21">
-        <v>0.06693605229272859</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1.772676333333333</v>
-      </c>
-      <c r="N21">
-        <v>5.318029</v>
-      </c>
-      <c r="O21">
-        <v>0.02641166782452989</v>
-      </c>
-      <c r="P21">
-        <v>0.03027903878070085</v>
-      </c>
-      <c r="Q21">
-        <v>21.36990037189933</v>
-      </c>
-      <c r="R21">
-        <v>128.219402231396</v>
-      </c>
-      <c r="S21">
-        <v>0.002523640461198165</v>
-      </c>
-      <c r="T21">
-        <v>0.002026759323198549</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>2.684571666666667</v>
-      </c>
-      <c r="H22">
-        <v>8.053715</v>
-      </c>
-      <c r="I22">
-        <v>0.02127813728346331</v>
-      </c>
-      <c r="J22">
-        <v>0.02235904786641327</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.9991829999999999</v>
-      </c>
-      <c r="N22">
-        <v>1.998366</v>
-      </c>
-      <c r="O22">
-        <v>0.01488714493203248</v>
-      </c>
-      <c r="P22">
-        <v>0.01137801272088475</v>
-      </c>
-      <c r="Q22">
-        <v>2.682378371615</v>
-      </c>
-      <c r="R22">
-        <v>16.09427022969</v>
-      </c>
-      <c r="S22">
-        <v>0.0003167707136226021</v>
-      </c>
-      <c r="T22">
-        <v>0.0002544015310509213</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>2.684571666666667</v>
-      </c>
-      <c r="H23">
-        <v>8.053715</v>
-      </c>
-      <c r="I23">
-        <v>0.02127813728346331</v>
-      </c>
-      <c r="J23">
-        <v>0.02235904786641327</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>39.565288</v>
-      </c>
-      <c r="N23">
-        <v>118.695864</v>
-      </c>
-      <c r="O23">
-        <v>0.5894957947979553</v>
-      </c>
-      <c r="P23">
-        <v>0.6758136650185235</v>
-      </c>
-      <c r="Q23">
-        <v>106.2158511483067</v>
-      </c>
-      <c r="R23">
-        <v>955.94266033476</v>
-      </c>
-      <c r="S23">
-        <v>0.01254337244973521</v>
-      </c>
-      <c r="T23">
-        <v>0.01511055008492535</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>2.684571666666667</v>
-      </c>
-      <c r="H24">
-        <v>8.053715</v>
-      </c>
-      <c r="I24">
-        <v>0.02127813728346331</v>
-      </c>
-      <c r="J24">
-        <v>0.02235904786641327</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M24">
-        <v>0.06171066666666666</v>
-      </c>
-      <c r="N24">
-        <v>0.185132</v>
-      </c>
-      <c r="O24">
-        <v>0.0009194468265763251</v>
-      </c>
-      <c r="P24">
-        <v>0.001054078307498645</v>
-      </c>
-      <c r="Q24">
-        <v>0.1656667072644444</v>
-      </c>
-      <c r="R24">
-        <v>1.49100036538</v>
-      </c>
-      <c r="S24">
-        <v>1.956411580073573E-05</v>
-      </c>
-      <c r="T24">
-        <v>2.356818733231008E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>2.684571666666667</v>
-      </c>
-      <c r="H25">
-        <v>8.053715</v>
-      </c>
-      <c r="I25">
-        <v>0.02127813728346331</v>
-      </c>
-      <c r="J25">
-        <v>0.02235904786641327</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>24.7183095</v>
-      </c>
-      <c r="N25">
-        <v>49.436619</v>
-      </c>
-      <c r="O25">
-        <v>0.3682859456189059</v>
-      </c>
-      <c r="P25">
-        <v>0.2814752051723923</v>
-      </c>
-      <c r="Q25">
-        <v>66.35807333159751</v>
-      </c>
-      <c r="R25">
-        <v>398.148439989585</v>
-      </c>
-      <c r="S25">
-        <v>0.007836438910449182</v>
-      </c>
-      <c r="T25">
-        <v>0.006293517585658016</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>2.684571666666667</v>
-      </c>
-      <c r="H26">
-        <v>8.053715</v>
-      </c>
-      <c r="I26">
-        <v>0.02127813728346331</v>
-      </c>
-      <c r="J26">
-        <v>0.02235904786641327</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1.772676333333333</v>
-      </c>
-      <c r="N26">
-        <v>5.318029</v>
-      </c>
-      <c r="O26">
-        <v>0.02641166782452989</v>
-      </c>
-      <c r="P26">
-        <v>0.03027903878070085</v>
-      </c>
-      <c r="Q26">
-        <v>4.758876658637222</v>
-      </c>
-      <c r="R26">
-        <v>42.829889927735</v>
-      </c>
-      <c r="S26">
-        <v>0.0005619910938555778</v>
-      </c>
-      <c r="T26">
-        <v>0.000677010477446674</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1.646369</v>
-      </c>
-      <c r="H27">
-        <v>4.939107000000001</v>
-      </c>
-      <c r="I27">
-        <v>0.013049256995525</v>
-      </c>
-      <c r="J27">
-        <v>0.01371214772689831</v>
-      </c>
-      <c r="K27">
-        <v>2</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>0.9991829999999999</v>
-      </c>
-      <c r="N27">
-        <v>1.998366</v>
-      </c>
-      <c r="O27">
-        <v>0.01488714493203248</v>
-      </c>
-      <c r="P27">
-        <v>0.01137801272088475</v>
-      </c>
-      <c r="Q27">
-        <v>1.645023916527</v>
-      </c>
-      <c r="R27">
-        <v>9.870143499162001</v>
-      </c>
-      <c r="S27">
-        <v>0.0001942661801477194</v>
-      </c>
-      <c r="T27">
-        <v>0.0001560169912673</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1.646369</v>
-      </c>
-      <c r="H28">
-        <v>4.939107000000001</v>
-      </c>
-      <c r="I28">
-        <v>0.013049256995525</v>
-      </c>
-      <c r="J28">
-        <v>0.01371214772689831</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>39.565288</v>
-      </c>
-      <c r="N28">
-        <v>118.695864</v>
-      </c>
-      <c r="O28">
-        <v>0.5894957947979553</v>
-      </c>
-      <c r="P28">
-        <v>0.6758136650185235</v>
-      </c>
-      <c r="Q28">
-        <v>65.13906363927201</v>
-      </c>
-      <c r="R28">
-        <v>586.251572753448</v>
-      </c>
-      <c r="S28">
-        <v>0.007692482124099789</v>
-      </c>
-      <c r="T28">
-        <v>0.009266856810590566</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>1.646369</v>
-      </c>
-      <c r="H29">
-        <v>4.939107000000001</v>
-      </c>
-      <c r="I29">
-        <v>0.013049256995525</v>
-      </c>
-      <c r="J29">
-        <v>0.01371214772689831</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M29">
-        <v>0.06171066666666666</v>
-      </c>
-      <c r="N29">
-        <v>0.185132</v>
-      </c>
-      <c r="O29">
-        <v>0.0009194468265763251</v>
-      </c>
-      <c r="P29">
-        <v>0.001054078307498645</v>
-      </c>
-      <c r="Q29">
-        <v>0.1015985285693333</v>
-      </c>
-      <c r="R29">
-        <v>0.9143867571240001</v>
-      </c>
-      <c r="S29">
-        <v>1.199809793371437E-05</v>
-      </c>
-      <c r="T29">
-        <v>1.445367746814036E-05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>1.646369</v>
-      </c>
-      <c r="H30">
-        <v>4.939107000000001</v>
-      </c>
-      <c r="I30">
-        <v>0.013049256995525</v>
-      </c>
-      <c r="J30">
-        <v>0.01371214772689831</v>
-      </c>
-      <c r="K30">
-        <v>2</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>24.7183095</v>
-      </c>
-      <c r="N30">
-        <v>49.436619</v>
-      </c>
-      <c r="O30">
-        <v>0.3682859456189059</v>
-      </c>
-      <c r="P30">
-        <v>0.2814752051723923</v>
-      </c>
-      <c r="Q30">
-        <v>40.69545849320551</v>
-      </c>
-      <c r="R30">
-        <v>244.172750959233</v>
-      </c>
-      <c r="S30">
-        <v>0.004805857952221048</v>
-      </c>
-      <c r="T30">
-        <v>0.003859629594782856</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>1.646369</v>
-      </c>
-      <c r="H31">
-        <v>4.939107000000001</v>
-      </c>
-      <c r="I31">
-        <v>0.013049256995525</v>
-      </c>
-      <c r="J31">
-        <v>0.01371214772689831</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>1.772676333333333</v>
-      </c>
-      <c r="N31">
-        <v>5.318029</v>
-      </c>
-      <c r="O31">
-        <v>0.02641166782452989</v>
-      </c>
-      <c r="P31">
-        <v>0.03027903878070085</v>
-      </c>
-      <c r="Q31">
-        <v>2.918479362233667</v>
-      </c>
-      <c r="R31">
-        <v>26.26631426010301</v>
-      </c>
-      <c r="S31">
-        <v>0.0003446526411227293</v>
-      </c>
-      <c r="T31">
-        <v>0.000415190652789453</v>
+        <v>0.0002257058756857262</v>
       </c>
     </row>
   </sheetData>
